--- a/氣象性能評估工具V2/data/obs/backup/2016-06-26_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-26_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-26 00:00:00</t>
+    <t>2016-06-26-00</t>
   </si>
   <si>
     <t>22.2</t>
@@ -154,7 +154,7 @@
     <t>28.4</t>
   </si>
   <si>
-    <t>2016-06-26 01:00:00</t>
+    <t>2016-06-26-01</t>
   </si>
   <si>
     <t>22.5</t>
@@ -199,7 +199,7 @@
     <t>26.9</t>
   </si>
   <si>
-    <t>2016-06-26 02:00:00</t>
+    <t>2016-06-26-02</t>
   </si>
   <si>
     <t>22.6</t>
@@ -235,7 +235,7 @@
     <t>27.6</t>
   </si>
   <si>
-    <t>2016-06-26 03:00:00</t>
+    <t>2016-06-26-03</t>
   </si>
   <si>
     <t>22.8</t>
@@ -259,7 +259,7 @@
     <t>29.5</t>
   </si>
   <si>
-    <t>2016-06-26 04:00:00</t>
+    <t>2016-06-26-04</t>
   </si>
   <si>
     <t>24.3</t>
@@ -292,7 +292,7 @@
     <t>29.4</t>
   </si>
   <si>
-    <t>2016-06-26 05:00:00</t>
+    <t>2016-06-26-05</t>
   </si>
   <si>
     <t>22.1</t>
@@ -313,7 +313,7 @@
     <t>26.8</t>
   </si>
   <si>
-    <t>2016-06-26 06:00:00</t>
+    <t>2016-06-26-06</t>
   </si>
   <si>
     <t>22.9</t>
@@ -337,7 +337,7 @@
     <t>30.1</t>
   </si>
   <si>
-    <t>2016-06-26 07:00:00</t>
+    <t>2016-06-26-07</t>
   </si>
   <si>
     <t>30.3</t>
@@ -373,7 +373,7 @@
     <t>31.3</t>
   </si>
   <si>
-    <t>2016-06-26 08:00:00</t>
+    <t>2016-06-26-08</t>
   </si>
   <si>
     <t>25.6</t>
@@ -412,7 +412,7 @@
     <t>31.7</t>
   </si>
   <si>
-    <t>2016-06-26 09:00:00</t>
+    <t>2016-06-26-09</t>
   </si>
   <si>
     <t>34.4</t>
@@ -448,7 +448,7 @@
     <t>32.4</t>
   </si>
   <si>
-    <t>2016-06-26 10:00:00</t>
+    <t>2016-06-26-10</t>
   </si>
   <si>
     <t>32.9</t>
@@ -487,7 +487,7 @@
     <t>32.7</t>
   </si>
   <si>
-    <t>2016-06-26 11:00:00</t>
+    <t>2016-06-26-11</t>
   </si>
   <si>
     <t>35.5</t>
@@ -505,7 +505,7 @@
     <t>33.5</t>
   </si>
   <si>
-    <t>2016-06-26 12:00:00</t>
+    <t>2016-06-26-12</t>
   </si>
   <si>
     <t>34.8</t>
@@ -514,7 +514,7 @@
     <t>9.7</t>
   </si>
   <si>
-    <t>2016-06-26 13:00:00</t>
+    <t>2016-06-26-13</t>
   </si>
   <si>
     <t>17.9</t>
@@ -523,7 +523,7 @@
     <t>34.3</t>
   </si>
   <si>
-    <t>2016-06-26 14:00:00</t>
+    <t>2016-06-26-14</t>
   </si>
   <si>
     <t>24.5</t>
@@ -535,7 +535,7 @@
     <t>8.6</t>
   </si>
   <si>
-    <t>2016-06-26 15:00:00</t>
+    <t>2016-06-26-15</t>
   </si>
   <si>
     <t>25.1</t>
@@ -547,7 +547,7 @@
     <t>8.0</t>
   </si>
   <si>
-    <t>2016-06-26 16:00:00</t>
+    <t>2016-06-26-16</t>
   </si>
   <si>
     <t>24.2</t>
@@ -559,13 +559,13 @@
     <t>15.2</t>
   </si>
   <si>
-    <t>2016-06-26 17:00:00</t>
+    <t>2016-06-26-17</t>
   </si>
   <si>
     <t>14.9</t>
   </si>
   <si>
-    <t>2016-06-26 18:00:00</t>
+    <t>2016-06-26-18</t>
   </si>
   <si>
     <t>23.1</t>
@@ -577,7 +577,7 @@
     <t>14.8</t>
   </si>
   <si>
-    <t>2016-06-26 19:00:00</t>
+    <t>2016-06-26-19</t>
   </si>
   <si>
     <t>22.7</t>
@@ -589,7 +589,7 @@
     <t>14.2</t>
   </si>
   <si>
-    <t>2016-06-26 20:00:00</t>
+    <t>2016-06-26-20</t>
   </si>
   <si>
     <t>14.0</t>
@@ -598,7 +598,7 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>2016-06-26 21:00:00</t>
+    <t>2016-06-26-21</t>
   </si>
   <si>
     <t>22.3</t>
@@ -610,7 +610,7 @@
     <t>6.7</t>
   </si>
   <si>
-    <t>2016-06-26 22:00:00</t>
+    <t>2016-06-26-22</t>
   </si>
   <si>
     <t>23.8</t>
@@ -625,7 +625,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>2016-06-26 23:00:00</t>
+    <t>2016-06-26-23</t>
   </si>
   <si>
     <t>25.3</t>
